--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1040"/>
+  <dimension ref="A1:G959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24784,10 +24784,8 @@
           <t>$ -340.0B</t>
         </is>
       </c>
-      <c r="G927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="928">
@@ -24821,10 +24819,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G928" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="929">
@@ -24858,10 +24854,8 @@
           <t>11</t>
         </is>
       </c>
-      <c r="G929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G929" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="930">
@@ -24895,10 +24889,8 @@
           <t>1880.0K</t>
         </is>
       </c>
-      <c r="G930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="931">
@@ -24928,10 +24920,8 @@
           <t>229.0K</t>
         </is>
       </c>
-      <c r="G931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="932">
@@ -24957,10 +24947,8 @@
       </c>
       <c r="E932" t="inlineStr"/>
       <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="933">
@@ -24986,10 +24974,8 @@
       </c>
       <c r="E933" t="inlineStr"/>
       <c r="F933" t="inlineStr"/>
-      <c r="G933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="934">
@@ -25015,10 +25001,8 @@
       </c>
       <c r="E934" t="inlineStr"/>
       <c r="F934" t="inlineStr"/>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="935">
@@ -25044,10 +25028,8 @@
       </c>
       <c r="E935" t="inlineStr"/>
       <c r="F935" t="inlineStr"/>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="936">
@@ -25073,10 +25055,8 @@
       </c>
       <c r="E936" t="inlineStr"/>
       <c r="F936" t="inlineStr"/>
-      <c r="G936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="937">
@@ -25110,10 +25090,8 @@
           <t>4.05M</t>
         </is>
       </c>
-      <c r="G937" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G937" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="938">
@@ -25143,10 +25121,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="939">
@@ -25180,10 +25156,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="G939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="940">
@@ -25213,10 +25187,8 @@
         </is>
       </c>
       <c r="F940" t="inlineStr"/>
-      <c r="G940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="941">
@@ -25242,10 +25214,8 @@
       </c>
       <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr"/>
-      <c r="G941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="942">
@@ -25271,10 +25241,8 @@
       </c>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr"/>
-      <c r="G942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="943">
@@ -25300,10 +25268,8 @@
       </c>
       <c r="E943" t="inlineStr"/>
       <c r="F943" t="inlineStr"/>
-      <c r="G943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="944">
@@ -25329,10 +25295,8 @@
       </c>
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr"/>
-      <c r="G944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="945">
@@ -25358,10 +25322,8 @@
       </c>
       <c r="E945" t="inlineStr"/>
       <c r="F945" t="inlineStr"/>
-      <c r="G945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="946">
@@ -25387,40 +25349,62 @@
       </c>
       <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr"/>
-      <c r="G946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B947" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>PCE Price Index MoMFEB</t>
+        </is>
+      </c>
       <c r="C947" t="inlineStr"/>
-      <c r="D947" t="inlineStr"/>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E947" t="inlineStr"/>
-      <c r="F947" t="inlineStr"/>
-      <c r="G947" t="inlineStr"/>
+      <c r="F947" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>08:05 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C948" t="inlineStr"/>
-      <c r="D948" t="inlineStr"/>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="E948" t="inlineStr"/>
-      <c r="F948" t="inlineStr"/>
+      <c r="F948" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G948" t="inlineStr">
         <is>
           <t>2</t>
@@ -25430,22 +25414,26 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
+          <t>Core PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C949" t="inlineStr"/>
       <c r="D949" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E949" t="inlineStr"/>
-      <c r="F949" t="inlineStr"/>
+      <c r="F949" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G949" t="inlineStr">
         <is>
           <t>3</t>
@@ -25455,224 +25443,240 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
+          <t>Michigan Consumer Sentiment FinalMAR</t>
         </is>
       </c>
       <c r="C950" t="inlineStr"/>
       <c r="D950" t="inlineStr">
         <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E950" t="inlineStr"/>
-      <c r="F950" t="inlineStr"/>
+          <t>64.7</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="F950" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="G950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Sunday March 23 2025</t>
-        </is>
-      </c>
-      <c r="B951" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
+        </is>
+      </c>
       <c r="C951" t="inlineStr"/>
-      <c r="D951" t="inlineStr"/>
-      <c r="E951" t="inlineStr"/>
-      <c r="F951" t="inlineStr"/>
-      <c r="G951" t="inlineStr"/>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="F951" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>Monday March 24 2025</t>
-        </is>
-      </c>
-      <c r="B952" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations FinalMAR</t>
+        </is>
+      </c>
       <c r="C952" t="inlineStr"/>
-      <c r="D952" t="inlineStr"/>
-      <c r="E952" t="inlineStr"/>
-      <c r="F952" t="inlineStr"/>
-      <c r="G952" t="inlineStr"/>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexFEB</t>
+          <t>Michigan Current Conditions FinalMAR</t>
         </is>
       </c>
       <c r="C953" t="inlineStr"/>
       <c r="D953" t="inlineStr">
         <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="E953" t="inlineStr"/>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G953" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashMAR</t>
+          <t>Michigan Inflation Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C954" t="inlineStr"/>
       <c r="D954" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="E954" t="inlineStr"/>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>4.9%</t>
+        </is>
+      </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="G954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashMAR</t>
+          <t>Baker Hughes Oil Rig CountMAR/28</t>
         </is>
       </c>
       <c r="C955" t="inlineStr"/>
-      <c r="D955" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="D955" t="inlineStr"/>
       <c r="E955" t="inlineStr"/>
-      <c r="F955" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashMAR</t>
+          <t>Baker Hughes Total Rigs CountMAR/28</t>
         </is>
       </c>
       <c r="C956" t="inlineStr"/>
-      <c r="D956" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="D956" t="inlineStr"/>
       <c r="E956" t="inlineStr"/>
-      <c r="F956" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
+      <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B957" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Saturday March 29 2025</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr"/>
       <c r="C957" t="inlineStr"/>
-      <c r="D957" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
+      <c r="D957" t="inlineStr"/>
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B958" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Sunday March 30 2025</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr"/>
       <c r="C958" t="inlineStr"/>
-      <c r="D958" t="inlineStr">
-        <is>
-          <t>4.100%</t>
-        </is>
-      </c>
+      <c r="D958" t="inlineStr"/>
       <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
-      <c r="G958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Tuesday March 25 2025</t>
+          <t>Monday March 31 2025</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -25682,2127 +25686,6 @@
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr"/>
     </row>
-    <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B960" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/22</t>
-        </is>
-      </c>
-      <c r="C960" t="inlineStr"/>
-      <c r="D960" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E960" t="inlineStr"/>
-      <c r="F960" t="inlineStr"/>
-      <c r="G960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B961" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYJAN</t>
-        </is>
-      </c>
-      <c r="C961" t="inlineStr"/>
-      <c r="D961" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E961" t="inlineStr"/>
-      <c r="F961" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B962" t="inlineStr">
-        <is>
-          <t>House Price IndexJAN</t>
-        </is>
-      </c>
-      <c r="C962" t="inlineStr"/>
-      <c r="D962" t="inlineStr">
-        <is>
-          <t>436.1</t>
-        </is>
-      </c>
-      <c r="E962" t="inlineStr"/>
-      <c r="F962" t="inlineStr">
-        <is>
-          <t>437.4</t>
-        </is>
-      </c>
-      <c r="G962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B963" t="inlineStr">
-        <is>
-          <t>House Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C963" t="inlineStr"/>
-      <c r="D963" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E963" t="inlineStr"/>
-      <c r="F963" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B964" t="inlineStr">
-        <is>
-          <t>House Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C964" t="inlineStr"/>
-      <c r="D964" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="E964" t="inlineStr"/>
-      <c r="F964" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
-      <c r="G964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B965" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMJAN</t>
-        </is>
-      </c>
-      <c r="C965" t="inlineStr"/>
-      <c r="D965" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E965" t="inlineStr"/>
-      <c r="F965" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B966" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceMAR</t>
-        </is>
-      </c>
-      <c r="C966" t="inlineStr"/>
-      <c r="D966" t="inlineStr">
-        <is>
-          <t>98.3</t>
-        </is>
-      </c>
-      <c r="E966" t="inlineStr"/>
-      <c r="F966" t="inlineStr">
-        <is>
-          <t>97.4</t>
-        </is>
-      </c>
-      <c r="G966" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B967" t="inlineStr">
-        <is>
-          <t>New Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C967" t="inlineStr"/>
-      <c r="D967" t="inlineStr">
-        <is>
-          <t>0.657M</t>
-        </is>
-      </c>
-      <c r="E967" t="inlineStr"/>
-      <c r="F967" t="inlineStr">
-        <is>
-          <t>0.66M</t>
-        </is>
-      </c>
-      <c r="G967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B968" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C968" t="inlineStr"/>
-      <c r="D968" t="inlineStr">
-        <is>
-          <t>-10.5%</t>
-        </is>
-      </c>
-      <c r="E968" t="inlineStr"/>
-      <c r="F968" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B969" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C969" t="inlineStr"/>
-      <c r="D969" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E969" t="inlineStr"/>
-      <c r="F969" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B970" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexMAR</t>
-        </is>
-      </c>
-      <c r="C970" t="inlineStr"/>
-      <c r="D970" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E970" t="inlineStr"/>
-      <c r="F970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B971" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexMAR</t>
-        </is>
-      </c>
-      <c r="C971" t="inlineStr"/>
-      <c r="D971" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E971" t="inlineStr"/>
-      <c r="F971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B972" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C972" t="inlineStr"/>
-      <c r="D972" t="inlineStr">
-        <is>
-          <t>4.169%</t>
-        </is>
-      </c>
-      <c r="E972" t="inlineStr"/>
-      <c r="F972" t="inlineStr"/>
-      <c r="G972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B973" t="inlineStr">
-        <is>
-          <t>Money SupplyFEB</t>
-        </is>
-      </c>
-      <c r="C973" t="inlineStr"/>
-      <c r="D973" t="inlineStr">
-        <is>
-          <t>$21.56T</t>
-        </is>
-      </c>
-      <c r="E973" t="inlineStr"/>
-      <c r="F973" t="inlineStr"/>
-      <c r="G973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B974" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C974" t="inlineStr"/>
-      <c r="D974" t="inlineStr">
-        <is>
-          <t>4.593M</t>
-        </is>
-      </c>
-      <c r="E974" t="inlineStr"/>
-      <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr"/>
-      <c r="B975" t="inlineStr">
-        <is>
-          <t>Building Permits FinalFEB</t>
-        </is>
-      </c>
-      <c r="C975" t="inlineStr"/>
-      <c r="D975" t="inlineStr">
-        <is>
-          <t>1.473M</t>
-        </is>
-      </c>
-      <c r="E975" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
-      <c r="F975" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
-      <c r="G975" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr"/>
-      <c r="B976" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalFEB</t>
-        </is>
-      </c>
-      <c r="C976" t="inlineStr"/>
-      <c r="D976" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E976" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F976" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="G976" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>Wednesday March 26 2025</t>
-        </is>
-      </c>
-      <c r="B977" t="inlineStr"/>
-      <c r="C977" t="inlineStr"/>
-      <c r="D977" t="inlineStr"/>
-      <c r="E977" t="inlineStr"/>
-      <c r="F977" t="inlineStr"/>
-      <c r="G977" t="inlineStr"/>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B978" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/21</t>
-        </is>
-      </c>
-      <c r="C978" t="inlineStr"/>
-      <c r="D978" t="inlineStr">
-        <is>
-          <t>6.72%</t>
-        </is>
-      </c>
-      <c r="E978" t="inlineStr"/>
-      <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B979" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/21</t>
-        </is>
-      </c>
-      <c r="C979" t="inlineStr"/>
-      <c r="D979" t="inlineStr">
-        <is>
-          <t>-6.2%</t>
-        </is>
-      </c>
-      <c r="E979" t="inlineStr"/>
-      <c r="F979" t="inlineStr"/>
-      <c r="G979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B980" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/21</t>
-        </is>
-      </c>
-      <c r="C980" t="inlineStr"/>
-      <c r="D980" t="inlineStr">
-        <is>
-          <t>252.5</t>
-        </is>
-      </c>
-      <c r="E980" t="inlineStr"/>
-      <c r="F980" t="inlineStr"/>
-      <c r="G980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B981" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/21</t>
-        </is>
-      </c>
-      <c r="C981" t="inlineStr"/>
-      <c r="D981" t="inlineStr">
-        <is>
-          <t>794.4</t>
-        </is>
-      </c>
-      <c r="E981" t="inlineStr"/>
-      <c r="F981" t="inlineStr"/>
-      <c r="G981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B982" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/21</t>
-        </is>
-      </c>
-      <c r="C982" t="inlineStr"/>
-      <c r="D982" t="inlineStr">
-        <is>
-          <t>154.7</t>
-        </is>
-      </c>
-      <c r="E982" t="inlineStr"/>
-      <c r="F982" t="inlineStr"/>
-      <c r="G982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B983" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMFEB</t>
-        </is>
-      </c>
-      <c r="C983" t="inlineStr"/>
-      <c r="D983" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E983" t="inlineStr"/>
-      <c r="F983" t="inlineStr"/>
-      <c r="G983" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B984" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMFEB</t>
-        </is>
-      </c>
-      <c r="C984" t="inlineStr"/>
-      <c r="D984" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E984" t="inlineStr"/>
-      <c r="F984" t="inlineStr"/>
-      <c r="G984" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMFEB</t>
-        </is>
-      </c>
-      <c r="C985" t="inlineStr"/>
-      <c r="D985" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E985" t="inlineStr"/>
-      <c r="F985" t="inlineStr"/>
-      <c r="G985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B986" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirFEB</t>
-        </is>
-      </c>
-      <c r="C986" t="inlineStr"/>
-      <c r="D986" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E986" t="inlineStr"/>
-      <c r="F986" t="inlineStr"/>
-      <c r="G986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B987" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C987" t="inlineStr"/>
-      <c r="D987" t="inlineStr">
-        <is>
-          <t>1.745M</t>
-        </is>
-      </c>
-      <c r="E987" t="inlineStr"/>
-      <c r="F987" t="inlineStr"/>
-      <c r="G987" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B988" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C988" t="inlineStr"/>
-      <c r="D988" t="inlineStr">
-        <is>
-          <t>-0.527M</t>
-        </is>
-      </c>
-      <c r="E988" t="inlineStr"/>
-      <c r="F988" t="inlineStr"/>
-      <c r="G988" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B989" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C989" t="inlineStr"/>
-      <c r="D989" t="inlineStr">
-        <is>
-          <t>-1.439M</t>
-        </is>
-      </c>
-      <c r="E989" t="inlineStr"/>
-      <c r="F989" t="inlineStr"/>
-      <c r="G989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B990" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C990" t="inlineStr"/>
-      <c r="D990" t="inlineStr">
-        <is>
-          <t>-1.009M</t>
-        </is>
-      </c>
-      <c r="E990" t="inlineStr"/>
-      <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B991" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C991" t="inlineStr"/>
-      <c r="D991" t="inlineStr">
-        <is>
-          <t>0.151M</t>
-        </is>
-      </c>
-      <c r="E991" t="inlineStr"/>
-      <c r="F991" t="inlineStr"/>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B992" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C992" t="inlineStr"/>
-      <c r="D992" t="inlineStr">
-        <is>
-          <t>-2.812M</t>
-        </is>
-      </c>
-      <c r="E992" t="inlineStr"/>
-      <c r="F992" t="inlineStr"/>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B993" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C993" t="inlineStr"/>
-      <c r="D993" t="inlineStr">
-        <is>
-          <t>0.067M</t>
-        </is>
-      </c>
-      <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr"/>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B994" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C994" t="inlineStr"/>
-      <c r="D994" t="inlineStr">
-        <is>
-          <t>0.008M</t>
-        </is>
-      </c>
-      <c r="E994" t="inlineStr"/>
-      <c r="F994" t="inlineStr"/>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B995" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C995" t="inlineStr"/>
-      <c r="D995" t="inlineStr">
-        <is>
-          <t>-0.045M</t>
-        </is>
-      </c>
-      <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr"/>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B996" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C996" t="inlineStr"/>
-      <c r="D996" t="inlineStr">
-        <is>
-          <t>0.090%</t>
-        </is>
-      </c>
-      <c r="E996" t="inlineStr"/>
-      <c r="F996" t="inlineStr"/>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B997" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C997" t="inlineStr"/>
-      <c r="D997" t="inlineStr">
-        <is>
-          <t>4.123%</t>
-        </is>
-      </c>
-      <c r="E997" t="inlineStr"/>
-      <c r="F997" t="inlineStr"/>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>Thursday March 27 2025</t>
-        </is>
-      </c>
-      <c r="B998" t="inlineStr"/>
-      <c r="C998" t="inlineStr"/>
-      <c r="D998" t="inlineStr"/>
-      <c r="E998" t="inlineStr"/>
-      <c r="F998" t="inlineStr"/>
-      <c r="G998" t="inlineStr"/>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B999" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C999" t="inlineStr"/>
-      <c r="D999" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E999" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F999" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQQ4</t>
-        </is>
-      </c>
-      <c r="C1000" t="inlineStr"/>
-      <c r="D1000" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1000" t="inlineStr"/>
-      <c r="F1000" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1001" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1001" t="inlineStr"/>
-      <c r="D1001" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E1001" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1001" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1002" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvFEB</t>
-        </is>
-      </c>
-      <c r="C1002" t="inlineStr"/>
-      <c r="D1002" t="inlineStr">
-        <is>
-          <t>$-153.26B</t>
-        </is>
-      </c>
-      <c r="E1002" t="inlineStr"/>
-      <c r="F1002" t="inlineStr">
-        <is>
-          <t>$-149.0B</t>
-        </is>
-      </c>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1003" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/22</t>
-        </is>
-      </c>
-      <c r="C1003" t="inlineStr"/>
-      <c r="D1003" t="inlineStr"/>
-      <c r="E1003" t="inlineStr"/>
-      <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvFEB</t>
-        </is>
-      </c>
-      <c r="C1004" t="inlineStr"/>
-      <c r="D1004" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1004" t="inlineStr"/>
-      <c r="F1004" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1005" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvFEB</t>
-        </is>
-      </c>
-      <c r="C1005" t="inlineStr"/>
-      <c r="D1005" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1005" t="inlineStr"/>
-      <c r="F1005" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1006" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1006" t="inlineStr"/>
-      <c r="D1006" t="inlineStr">
-        <is>
-          <t>1892K</t>
-        </is>
-      </c>
-      <c r="E1006" t="inlineStr"/>
-      <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1007" t="inlineStr"/>
-      <c r="D1007" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E1007" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F1007" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1008" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1008" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F1008" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1009" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/22</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr"/>
-      <c r="D1009" t="inlineStr"/>
-      <c r="E1009" t="inlineStr"/>
-      <c r="F1009" t="inlineStr"/>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1010" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1010" t="inlineStr"/>
-      <c r="D1010" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E1010" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1010" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1011" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C1011" t="inlineStr"/>
-      <c r="D1011" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1012" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1012" t="inlineStr"/>
-      <c r="D1012" t="inlineStr">
-        <is>
-          <t>-4.6%</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr"/>
-      <c r="F1012" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1013" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1013" t="inlineStr"/>
-      <c r="D1013" t="inlineStr">
-        <is>
-          <t>-5.2%</t>
-        </is>
-      </c>
-      <c r="E1013" t="inlineStr"/>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>-3.7%</t>
-        </is>
-      </c>
-      <c r="G1013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/21</t>
-        </is>
-      </c>
-      <c r="C1014" t="inlineStr"/>
-      <c r="D1014" t="inlineStr">
-        <is>
-          <t>9Bcf</t>
-        </is>
-      </c>
-      <c r="E1014" t="inlineStr"/>
-      <c r="F1014" t="inlineStr"/>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1015" t="inlineStr"/>
-      <c r="D1015" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1016" t="inlineStr"/>
-      <c r="D1016" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="E1016" t="inlineStr"/>
-      <c r="F1016" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="G1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1017" t="inlineStr"/>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1018" t="inlineStr"/>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr"/>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1019" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/27</t>
-        </is>
-      </c>
-      <c r="C1019" t="inlineStr"/>
-      <c r="D1019" t="inlineStr">
-        <is>
-          <t>5.83%</t>
-        </is>
-      </c>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1020" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/27</t>
-        </is>
-      </c>
-      <c r="C1020" t="inlineStr"/>
-      <c r="D1020" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
-      <c r="E1020" t="inlineStr"/>
-      <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1021" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr">
-        <is>
-          <t>4.194%</t>
-        </is>
-      </c>
-      <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
-      <c r="G1021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1022" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C1022" t="inlineStr"/>
-      <c r="D1022" t="inlineStr"/>
-      <c r="E1022" t="inlineStr"/>
-      <c r="F1022" t="inlineStr"/>
-      <c r="G1022" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1023" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/26</t>
-        </is>
-      </c>
-      <c r="C1023" t="inlineStr"/>
-      <c r="D1023" t="inlineStr">
-        <is>
-          <t>$6.76T</t>
-        </is>
-      </c>
-      <c r="E1023" t="inlineStr"/>
-      <c r="F1023" t="inlineStr"/>
-      <c r="G1023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" t="inlineStr">
-        <is>
-          <t>Friday March 28 2025</t>
-        </is>
-      </c>
-      <c r="B1024" t="inlineStr"/>
-      <c r="C1024" t="inlineStr"/>
-      <c r="D1024" t="inlineStr"/>
-      <c r="E1024" t="inlineStr"/>
-      <c r="F1024" t="inlineStr"/>
-      <c r="G1024" t="inlineStr"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1025" t="inlineStr"/>
-      <c r="D1025" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1025" t="inlineStr"/>
-      <c r="F1025" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1025" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>Personal Income MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1026" t="inlineStr"/>
-      <c r="D1026" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1026" t="inlineStr"/>
-      <c r="F1026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1026" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1027" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1027" t="inlineStr"/>
-      <c r="D1027" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1027" t="inlineStr"/>
-      <c r="F1027" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1028" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1028" t="inlineStr"/>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1028" t="inlineStr"/>
-      <c r="F1028" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1029" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1029" t="inlineStr"/>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E1029" t="inlineStr"/>
-      <c r="F1029" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1030" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1030" t="inlineStr"/>
-      <c r="D1030" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1030" t="inlineStr"/>
-      <c r="F1030" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G1030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1031" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1031" t="inlineStr"/>
-      <c r="D1031" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1032" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1032" t="inlineStr"/>
-      <c r="D1032" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1032" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1032" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G1032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1033" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1033" t="inlineStr"/>
-      <c r="D1033" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="E1033" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="F1033" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G1033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1034" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1034" t="inlineStr"/>
-      <c r="D1034" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1034" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="F1034" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1035" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalMAR</t>
-        </is>
-      </c>
-      <c r="C1035" t="inlineStr"/>
-      <c r="D1035" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1035" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="F1035" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="G1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1036" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/28</t>
-        </is>
-      </c>
-      <c r="C1036" t="inlineStr"/>
-      <c r="D1036" t="inlineStr"/>
-      <c r="E1036" t="inlineStr"/>
-      <c r="F1036" t="inlineStr"/>
-      <c r="G1036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1037" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/28</t>
-        </is>
-      </c>
-      <c r="C1037" t="inlineStr"/>
-      <c r="D1037" t="inlineStr"/>
-      <c r="E1037" t="inlineStr"/>
-      <c r="F1037" t="inlineStr"/>
-      <c r="G1037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>Saturday March 29 2025</t>
-        </is>
-      </c>
-      <c r="B1038" t="inlineStr"/>
-      <c r="C1038" t="inlineStr"/>
-      <c r="D1038" t="inlineStr"/>
-      <c r="E1038" t="inlineStr"/>
-      <c r="F1038" t="inlineStr"/>
-      <c r="G1038" t="inlineStr"/>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>Sunday March 30 2025</t>
-        </is>
-      </c>
-      <c r="B1039" t="inlineStr"/>
-      <c r="C1039" t="inlineStr"/>
-      <c r="D1039" t="inlineStr"/>
-      <c r="E1039" t="inlineStr"/>
-      <c r="F1039" t="inlineStr"/>
-      <c r="G1039" t="inlineStr"/>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>Monday March 31 2025</t>
-        </is>
-      </c>
-      <c r="B1040" t="inlineStr"/>
-      <c r="C1040" t="inlineStr"/>
-      <c r="D1040" t="inlineStr"/>
-      <c r="E1040" t="inlineStr"/>
-      <c r="F1040" t="inlineStr"/>
-      <c r="G1040" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1020"/>
+  <dimension ref="A1:G1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24756,7 +24756,7 @@
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>Friday March 21 2025</t>
+          <t>Sunday March 23 2025</t>
         </is>
       </c>
       <c r="B927" t="inlineStr"/>
@@ -24769,260 +24769,272 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>08:05 AM</t>
-        </is>
-      </c>
-      <c r="B928" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
+          <t>Monday March 24 2025</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr"/>
       <c r="C928" t="inlineStr"/>
       <c r="D928" t="inlineStr"/>
       <c r="E928" t="inlineStr"/>
       <c r="F928" t="inlineStr"/>
-      <c r="G928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
+          <t>Chicago Fed National Activity IndexFEB</t>
         </is>
       </c>
       <c r="C929" t="inlineStr"/>
       <c r="D929" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="E929" t="inlineStr"/>
-      <c r="F929" t="inlineStr"/>
+      <c r="F929" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
       <c r="G929" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
+          <t>S&amp;P Global Composite PMI FlashMAR</t>
         </is>
       </c>
       <c r="C930" t="inlineStr"/>
       <c r="D930" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="E930" t="inlineStr"/>
-      <c r="F930" t="inlineStr"/>
+      <c r="F930" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G930" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Sunday March 23 2025</t>
-        </is>
-      </c>
-      <c r="B931" t="inlineStr"/>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashMAR</t>
+        </is>
+      </c>
       <c r="C931" t="inlineStr"/>
-      <c r="D931" t="inlineStr"/>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E931" t="inlineStr"/>
-      <c r="F931" t="inlineStr"/>
-      <c r="G931" t="inlineStr"/>
+      <c r="F931" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G931" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>Monday March 24 2025</t>
-        </is>
-      </c>
-      <c r="B932" t="inlineStr"/>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FlashMAR</t>
+        </is>
+      </c>
       <c r="C932" t="inlineStr"/>
-      <c r="D932" t="inlineStr"/>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="E932" t="inlineStr"/>
-      <c r="F932" t="inlineStr"/>
-      <c r="G932" t="inlineStr"/>
+      <c r="F932" t="inlineStr">
+        <is>
+          <t>49.5</t>
+        </is>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexFEB</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C933" t="inlineStr"/>
       <c r="D933" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E933" t="inlineStr"/>
-      <c r="F933" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
+      <c r="F933" t="inlineStr"/>
       <c r="G933" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashMAR</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C934" t="inlineStr"/>
       <c r="D934" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>4.100%</t>
         </is>
       </c>
       <c r="E934" t="inlineStr"/>
-      <c r="F934" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="F934" t="inlineStr"/>
       <c r="G934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B935" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashMAR</t>
-        </is>
-      </c>
+          <t>Tuesday March 25 2025</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
       <c r="C935" t="inlineStr"/>
-      <c r="D935" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="D935" t="inlineStr"/>
       <c r="E935" t="inlineStr"/>
-      <c r="F935" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G935" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F935" t="inlineStr"/>
+      <c r="G935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashMAR</t>
+          <t>Redbook YoYMAR/22</t>
         </is>
       </c>
       <c r="C936" t="inlineStr"/>
       <c r="D936" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="E936" t="inlineStr"/>
-      <c r="F936" t="inlineStr">
-        <is>
-          <t>49.5</t>
-        </is>
-      </c>
+      <c r="F936" t="inlineStr"/>
       <c r="G936" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYJAN</t>
         </is>
       </c>
       <c r="C937" t="inlineStr"/>
       <c r="D937" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E937" t="inlineStr"/>
-      <c r="F937" t="inlineStr"/>
+      <c r="F937" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="G937" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>House Price IndexJAN</t>
         </is>
       </c>
       <c r="C938" t="inlineStr"/>
       <c r="D938" t="inlineStr">
         <is>
-          <t>4.100%</t>
+          <t>436.1</t>
         </is>
       </c>
       <c r="E938" t="inlineStr"/>
-      <c r="F938" t="inlineStr"/>
+      <c r="F938" t="inlineStr">
+        <is>
+          <t>437.4</t>
+        </is>
+      </c>
       <c r="G938" t="inlineStr">
         <is>
           <t>3</t>
@@ -25032,35 +25044,55 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Tuesday March 25 2025</t>
-        </is>
-      </c>
-      <c r="B939" t="inlineStr"/>
+          <t>08:00 AM</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>House Price Index MoMJAN</t>
+        </is>
+      </c>
       <c r="C939" t="inlineStr"/>
-      <c r="D939" t="inlineStr"/>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E939" t="inlineStr"/>
-      <c r="F939" t="inlineStr"/>
-      <c r="G939" t="inlineStr"/>
+      <c r="F939" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/22</t>
+          <t>House Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C940" t="inlineStr"/>
       <c r="D940" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="E940" t="inlineStr"/>
-      <c r="F940" t="inlineStr"/>
+      <c r="F940" t="inlineStr">
+        <is>
+          <t>4.7%</t>
+        </is>
+      </c>
       <c r="G940" t="inlineStr">
         <is>
           <t>3</t>
@@ -25075,135 +25107,135 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYJAN</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMJAN</t>
         </is>
       </c>
       <c r="C941" t="inlineStr"/>
       <c r="D941" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E941" t="inlineStr"/>
       <c r="F941" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>House Price IndexJAN</t>
+          <t>CB Consumer ConfidenceMAR</t>
         </is>
       </c>
       <c r="C942" t="inlineStr"/>
       <c r="D942" t="inlineStr">
         <is>
-          <t>436.1</t>
+          <t>98.3</t>
         </is>
       </c>
       <c r="E942" t="inlineStr"/>
       <c r="F942" t="inlineStr">
         <is>
-          <t>437.4</t>
+          <t>97.4</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>House Price Index MoMJAN</t>
+          <t>New Home SalesFEB</t>
         </is>
       </c>
       <c r="C943" t="inlineStr"/>
       <c r="D943" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.657M</t>
         </is>
       </c>
       <c r="E943" t="inlineStr"/>
       <c r="F943" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.66M</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>House Price Index YoYJAN</t>
+          <t>New Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C944" t="inlineStr"/>
       <c r="D944" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>-10.5%</t>
         </is>
       </c>
       <c r="E944" t="inlineStr"/>
       <c r="F944" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMJAN</t>
+          <t>Richmond Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C945" t="inlineStr"/>
       <c r="D945" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E945" t="inlineStr"/>
       <c r="F945" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G945" t="inlineStr">
@@ -25220,24 +25252,24 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceMAR</t>
+          <t>Richmond Fed Manufacturing Shipments IndexMAR</t>
         </is>
       </c>
       <c r="C946" t="inlineStr"/>
       <c r="D946" t="inlineStr">
         <is>
-          <t>98.3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E946" t="inlineStr"/>
       <c r="F946" t="inlineStr">
         <is>
-          <t>97.4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -25249,79 +25281,71 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>New Home SalesFEB</t>
+          <t>Richmond Fed Services Revenues IndexMAR</t>
         </is>
       </c>
       <c r="C947" t="inlineStr"/>
       <c r="D947" t="inlineStr">
         <is>
-          <t>0.657M</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E947" t="inlineStr"/>
       <c r="F947" t="inlineStr">
         <is>
-          <t>0.66M</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>New Home Sales MoMFEB</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="C948" t="inlineStr"/>
       <c r="D948" t="inlineStr">
         <is>
-          <t>-10.5%</t>
+          <t>4.169%</t>
         </is>
       </c>
       <c r="E948" t="inlineStr"/>
-      <c r="F948" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F948" t="inlineStr"/>
       <c r="G948" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexMAR</t>
+          <t>Money SupplyFEB</t>
         </is>
       </c>
       <c r="C949" t="inlineStr"/>
       <c r="D949" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>$21.56T</t>
         </is>
       </c>
       <c r="E949" t="inlineStr"/>
-      <c r="F949" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="F949" t="inlineStr"/>
       <c r="G949" t="inlineStr">
         <is>
           <t>3</t>
@@ -25331,126 +25355,114 @@
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexMAR</t>
+          <t>API Crude Oil Stock ChangeMAR/21</t>
         </is>
       </c>
       <c r="C950" t="inlineStr"/>
       <c r="D950" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4.593M</t>
         </is>
       </c>
       <c r="E950" t="inlineStr"/>
-      <c r="F950" t="inlineStr">
+      <c r="F950" t="inlineStr"/>
+      <c r="G950" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
     </row>
     <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
+      <c r="A951" t="inlineStr"/>
       <c r="B951" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexMAR</t>
+          <t>Building Permits FinalFEB</t>
         </is>
       </c>
       <c r="C951" t="inlineStr"/>
       <c r="D951" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E951" t="inlineStr"/>
+          <t>1.473M</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>1.456M</t>
+        </is>
+      </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1.456M</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A952" t="inlineStr"/>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Building Permits MoM FinalFEB</t>
         </is>
       </c>
       <c r="C952" t="inlineStr"/>
       <c r="D952" t="inlineStr">
         <is>
-          <t>4.169%</t>
-        </is>
-      </c>
-      <c r="E952" t="inlineStr"/>
-      <c r="F952" t="inlineStr"/>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
+      <c r="F952" t="inlineStr">
+        <is>
+          <t>-1.2%</t>
+        </is>
+      </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B953" t="inlineStr">
-        <is>
-          <t>Money SupplyFEB</t>
-        </is>
-      </c>
+          <t>Wednesday March 26 2025</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr"/>
       <c r="C953" t="inlineStr"/>
-      <c r="D953" t="inlineStr">
-        <is>
-          <t>$21.56T</t>
-        </is>
-      </c>
+      <c r="D953" t="inlineStr"/>
       <c r="E953" t="inlineStr"/>
       <c r="F953" t="inlineStr"/>
-      <c r="G953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/21</t>
+          <t>MBA 30-Year Mortgage RateMAR/21</t>
         </is>
       </c>
       <c r="C954" t="inlineStr"/>
       <c r="D954" t="inlineStr">
         <is>
-          <t>4.593M</t>
+          <t>6.72%</t>
         </is>
       </c>
       <c r="E954" t="inlineStr"/>
@@ -25462,75 +25474,79 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" t="inlineStr"/>
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>Building Permits FinalFEB</t>
+          <t>MBA Mortgage ApplicationsMAR/21</t>
         </is>
       </c>
       <c r="C955" t="inlineStr"/>
       <c r="D955" t="inlineStr">
         <is>
-          <t>1.473M</t>
-        </is>
-      </c>
-      <c r="E955" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
-      <c r="F955" t="inlineStr">
-        <is>
-          <t>1.456M</t>
-        </is>
-      </c>
+          <t>-6.2%</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr"/>
+      <c r="F955" t="inlineStr"/>
       <c r="G955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="956">
-      <c r="A956" t="inlineStr"/>
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalFEB</t>
+          <t>MBA Mortgage Market IndexMAR/21</t>
         </is>
       </c>
       <c r="C956" t="inlineStr"/>
       <c r="D956" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E956" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F956" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+          <t>252.5</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr"/>
+      <c r="F956" t="inlineStr"/>
       <c r="G956" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>Wednesday March 26 2025</t>
-        </is>
-      </c>
-      <c r="B957" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexMAR/21</t>
+        </is>
+      </c>
       <c r="C957" t="inlineStr"/>
-      <c r="D957" t="inlineStr"/>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>794.4</t>
+        </is>
+      </c>
       <c r="E957" t="inlineStr"/>
       <c r="F957" t="inlineStr"/>
-      <c r="G957" t="inlineStr"/>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
@@ -25540,88 +25556,88 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAR/21</t>
+          <t>MBA Purchase IndexMAR/21</t>
         </is>
       </c>
       <c r="C958" t="inlineStr"/>
       <c r="D958" t="inlineStr">
         <is>
-          <t>6.72%</t>
+          <t>154.7</t>
         </is>
       </c>
       <c r="E958" t="inlineStr"/>
       <c r="F958" t="inlineStr"/>
       <c r="G958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAR/21</t>
+          <t>Durable Goods Orders MoMFEB</t>
         </is>
       </c>
       <c r="C959" t="inlineStr"/>
       <c r="D959" t="inlineStr">
         <is>
-          <t>-6.2%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="E959" t="inlineStr"/>
       <c r="F959" t="inlineStr"/>
       <c r="G959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAR/21</t>
+          <t>Durable Goods Orders Ex Transp MoMFEB</t>
         </is>
       </c>
       <c r="C960" t="inlineStr"/>
       <c r="D960" t="inlineStr">
         <is>
-          <t>252.5</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E960" t="inlineStr"/>
       <c r="F960" t="inlineStr"/>
       <c r="G960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAR/21</t>
+          <t>Durable Goods Orders ex Defense MoMFEB</t>
         </is>
       </c>
       <c r="C961" t="inlineStr"/>
       <c r="D961" t="inlineStr">
         <is>
-          <t>794.4</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E961" t="inlineStr"/>
@@ -25635,18 +25651,18 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAR/21</t>
+          <t>Non Defense Goods Orders Ex AirFEB</t>
         </is>
       </c>
       <c r="C962" t="inlineStr"/>
       <c r="D962" t="inlineStr">
         <is>
-          <t>154.7</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E962" t="inlineStr"/>
@@ -25660,43 +25676,43 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMFEB</t>
+          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C963" t="inlineStr"/>
       <c r="D963" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.745M</t>
         </is>
       </c>
       <c r="E963" t="inlineStr"/>
       <c r="F963" t="inlineStr"/>
       <c r="G963" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMFEB</t>
+          <t>EIA Gasoline Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C964" t="inlineStr"/>
       <c r="D964" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.527M</t>
         </is>
       </c>
       <c r="E964" t="inlineStr"/>
@@ -25710,18 +25726,18 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMFEB</t>
+          <t>EIA Crude Oil Imports ChangeMAR/21</t>
         </is>
       </c>
       <c r="C965" t="inlineStr"/>
       <c r="D965" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-1.439M</t>
         </is>
       </c>
       <c r="E965" t="inlineStr"/>
@@ -25735,18 +25751,18 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirFEB</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C966" t="inlineStr"/>
       <c r="D966" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-1.009M</t>
         </is>
       </c>
       <c r="E966" t="inlineStr"/>
@@ -25765,20 +25781,20 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/21</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
         </is>
       </c>
       <c r="C967" t="inlineStr"/>
       <c r="D967" t="inlineStr">
         <is>
-          <t>1.745M</t>
+          <t>0.151M</t>
         </is>
       </c>
       <c r="E967" t="inlineStr"/>
       <c r="F967" t="inlineStr"/>
       <c r="G967" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -25790,20 +25806,20 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAR/21</t>
+          <t>EIA Distillate Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C968" t="inlineStr"/>
       <c r="D968" t="inlineStr">
         <is>
-          <t>-0.527M</t>
+          <t>-2.812M</t>
         </is>
       </c>
       <c r="E968" t="inlineStr"/>
       <c r="F968" t="inlineStr"/>
       <c r="G968" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -25815,13 +25831,13 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAR/21</t>
+          <t>EIA Gasoline Production ChangeMAR/21</t>
         </is>
       </c>
       <c r="C969" t="inlineStr"/>
       <c r="D969" t="inlineStr">
         <is>
-          <t>-1.439M</t>
+          <t>0.067M</t>
         </is>
       </c>
       <c r="E969" t="inlineStr"/>
@@ -25840,13 +25856,13 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/21</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C970" t="inlineStr"/>
       <c r="D970" t="inlineStr">
         <is>
-          <t>-1.009M</t>
+          <t>0.008M</t>
         </is>
       </c>
       <c r="E970" t="inlineStr"/>
@@ -25865,13 +25881,13 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/21</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
         </is>
       </c>
       <c r="C971" t="inlineStr"/>
       <c r="D971" t="inlineStr">
         <is>
-          <t>0.151M</t>
+          <t>-0.045M</t>
         </is>
       </c>
       <c r="E971" t="inlineStr"/>
@@ -25885,18 +25901,18 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAR/21</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C972" t="inlineStr"/>
       <c r="D972" t="inlineStr">
         <is>
-          <t>-2.812M</t>
+          <t>0.090%</t>
         </is>
       </c>
       <c r="E972" t="inlineStr"/>
@@ -25910,18 +25926,18 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAR/21</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C973" t="inlineStr"/>
       <c r="D973" t="inlineStr">
         <is>
-          <t>0.067M</t>
+          <t>4.123%</t>
         </is>
       </c>
       <c r="E973" t="inlineStr"/>
@@ -25935,115 +25951,139 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B974" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/21</t>
-        </is>
-      </c>
+          <t>Thursday March 27 2025</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr"/>
       <c r="C974" t="inlineStr"/>
-      <c r="D974" t="inlineStr">
-        <is>
-          <t>0.008M</t>
-        </is>
-      </c>
+      <c r="D974" t="inlineStr"/>
       <c r="E974" t="inlineStr"/>
       <c r="F974" t="inlineStr"/>
-      <c r="G974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/21</t>
+          <t>GDP Growth Rate QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C975" t="inlineStr"/>
       <c r="D975" t="inlineStr">
         <is>
-          <t>-0.045M</t>
-        </is>
-      </c>
-      <c r="E975" t="inlineStr"/>
-      <c r="F975" t="inlineStr"/>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>Corporate Profits QoQQ4</t>
         </is>
       </c>
       <c r="C976" t="inlineStr"/>
       <c r="D976" t="inlineStr">
         <is>
-          <t>0.090%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="E976" t="inlineStr"/>
-      <c r="F976" t="inlineStr"/>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="G976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>GDP Price Index QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C977" t="inlineStr"/>
       <c r="D977" t="inlineStr">
         <is>
-          <t>4.123%</t>
-        </is>
-      </c>
-      <c r="E977" t="inlineStr"/>
-      <c r="F977" t="inlineStr"/>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="G977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Thursday March 27 2025</t>
-        </is>
-      </c>
-      <c r="B978" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Goods Trade Balance AdvFEB</t>
+        </is>
+      </c>
       <c r="C978" t="inlineStr"/>
-      <c r="D978" t="inlineStr"/>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>$-153.26B</t>
+        </is>
+      </c>
       <c r="E978" t="inlineStr"/>
-      <c r="F978" t="inlineStr"/>
-      <c r="G978" t="inlineStr"/>
+      <c r="F978" t="inlineStr">
+        <is>
+          <t>$-149.0B</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
@@ -26053,28 +26093,24 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ FinalQ4</t>
+          <t>Initial Jobless ClaimsMAR/22</t>
         </is>
       </c>
       <c r="C979" t="inlineStr"/>
       <c r="D979" t="inlineStr">
         <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E979" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>223K</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr"/>
       <c r="F979" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26086,19 +26122,19 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>Corporate Profits QoQQ4</t>
+          <t>Retail Inventories Ex Autos MoM AdvFEB</t>
         </is>
       </c>
       <c r="C980" t="inlineStr"/>
       <c r="D980" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E980" t="inlineStr"/>
       <c r="F980" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G980" t="inlineStr">
@@ -26115,23 +26151,19 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ FinalQ4</t>
+          <t>Wholesale Inventories MoM AdvFEB</t>
         </is>
       </c>
       <c r="C981" t="inlineStr"/>
       <c r="D981" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E981" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr"/>
       <c r="F981" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -26148,24 +26180,24 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvFEB</t>
+          <t>Continuing Jobless ClaimsMAR/15</t>
         </is>
       </c>
       <c r="C982" t="inlineStr"/>
       <c r="D982" t="inlineStr">
         <is>
-          <t>$-153.26B</t>
+          <t>1892K</t>
         </is>
       </c>
       <c r="E982" t="inlineStr"/>
       <c r="F982" t="inlineStr">
         <is>
-          <t>$-149.0B</t>
+          <t>1893.0K</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -26177,24 +26209,28 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAR/22</t>
+          <t>Core PCE Prices QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C983" t="inlineStr"/>
       <c r="D983" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E983" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -26206,24 +26242,28 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvFEB</t>
+          <t>GDP Sales QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C984" t="inlineStr"/>
       <c r="D984" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E984" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G984" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -26235,24 +26275,24 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvFEB</t>
+          <t>Jobless Claims 4-week AverageMAR/22</t>
         </is>
       </c>
       <c r="C985" t="inlineStr"/>
       <c r="D985" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>227K</t>
         </is>
       </c>
       <c r="E985" t="inlineStr"/>
       <c r="F985" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>228.0K</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -26264,19 +26304,23 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAR/15</t>
+          <t>PCE Prices QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C986" t="inlineStr"/>
       <c r="D986" t="inlineStr">
         <is>
-          <t>1892K</t>
-        </is>
-      </c>
-      <c r="E986" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>1893.0K</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -26293,23 +26337,23 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ FinalQ4</t>
+          <t>Real Consumer Spending QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C987" t="inlineStr"/>
       <c r="D987" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -26321,92 +26365,80 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ FinalQ4</t>
+          <t>Pending Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C988" t="inlineStr"/>
       <c r="D988" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E988" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>-4.6%</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr"/>
       <c r="F988" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAR/22</t>
+          <t>Pending Home Sales YoYFEB</t>
         </is>
       </c>
       <c r="C989" t="inlineStr"/>
       <c r="D989" t="inlineStr">
         <is>
-          <t>227K</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="E989" t="inlineStr"/>
       <c r="F989" t="inlineStr">
         <is>
-          <t>228.0K</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ FinalQ4</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/21</t>
         </is>
       </c>
       <c r="C990" t="inlineStr"/>
       <c r="D990" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E990" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F990" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>9Bcf</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr"/>
+      <c r="F990" t="inlineStr"/>
       <c r="G990" t="inlineStr">
         <is>
           <t>3</t>
@@ -26416,28 +26448,24 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ FinalQ4</t>
+          <t>Kansas Fed Composite IndexMAR</t>
         </is>
       </c>
       <c r="C991" t="inlineStr"/>
       <c r="D991" t="inlineStr">
         <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E991" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr"/>
       <c r="F991" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="G991" t="inlineStr">
@@ -26449,76 +26477,72 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMFEB</t>
+          <t>Kansas Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C992" t="inlineStr"/>
       <c r="D992" t="inlineStr">
         <is>
-          <t>-4.6%</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="E992" t="inlineStr"/>
       <c r="F992" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="G992" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C993" t="inlineStr"/>
       <c r="D993" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>4.215%</t>
         </is>
       </c>
       <c r="E993" t="inlineStr"/>
-      <c r="F993" t="inlineStr">
-        <is>
-          <t>-3.7%</t>
-        </is>
-      </c>
+      <c r="F993" t="inlineStr"/>
       <c r="G993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/21</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C994" t="inlineStr"/>
       <c r="D994" t="inlineStr">
         <is>
-          <t>9Bcf</t>
+          <t>4.215%</t>
         </is>
       </c>
       <c r="E994" t="inlineStr"/>
@@ -26532,26 +26556,22 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexMAR</t>
+          <t>15-Year Mortgage RateMAR/27</t>
         </is>
       </c>
       <c r="C995" t="inlineStr"/>
       <c r="D995" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>5.83%</t>
         </is>
       </c>
       <c r="E995" t="inlineStr"/>
-      <c r="F995" t="inlineStr">
-        <is>
-          <t>-6</t>
-        </is>
-      </c>
+      <c r="F995" t="inlineStr"/>
       <c r="G995" t="inlineStr">
         <is>
           <t>3</t>
@@ -26561,26 +26581,22 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexMAR</t>
+          <t>30-Year Mortgage RateMAR/27</t>
         </is>
       </c>
       <c r="C996" t="inlineStr"/>
       <c r="D996" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>6.67%</t>
         </is>
       </c>
       <c r="E996" t="inlineStr"/>
-      <c r="F996" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
+      <c r="F996" t="inlineStr"/>
       <c r="G996" t="inlineStr">
         <is>
           <t>3</t>
@@ -26590,18 +26606,18 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C997" t="inlineStr"/>
       <c r="D997" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>4.194%</t>
         </is>
       </c>
       <c r="E997" t="inlineStr"/>
@@ -26615,43 +26631,39 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C998" t="inlineStr"/>
-      <c r="D998" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
+      <c r="D998" t="inlineStr"/>
       <c r="E998" t="inlineStr"/>
       <c r="F998" t="inlineStr"/>
       <c r="G998" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAR/27</t>
+          <t>Fed Balance SheetMAR/26</t>
         </is>
       </c>
       <c r="C999" t="inlineStr"/>
       <c r="D999" t="inlineStr">
         <is>
-          <t>5.83%</t>
+          <t>$6.76T</t>
         </is>
       </c>
       <c r="E999" t="inlineStr"/>
@@ -26665,111 +26677,131 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1000" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/27</t>
-        </is>
-      </c>
+          <t>Friday March 28 2025</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr"/>
       <c r="C1000" t="inlineStr"/>
-      <c r="D1000" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
+      <c r="D1000" t="inlineStr"/>
       <c r="E1000" t="inlineStr"/>
       <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1000" t="inlineStr"/>
     </row>
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>Core PCE Price Index MoMFEB</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr"/>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>4.194%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1001" t="inlineStr"/>
-      <c r="F1001" t="inlineStr"/>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G1001" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Personal Income MoMFEB</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr"/>
-      <c r="D1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E1002" t="inlineStr"/>
-      <c r="F1002" t="inlineStr"/>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1002" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/26</t>
+          <t>Personal Spending MoMFEB</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr"/>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr"/>
-      <c r="F1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1003" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Friday March 28 2025</t>
-        </is>
-      </c>
-      <c r="B1004" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>PCE Price Index MoMFEB</t>
+        </is>
+      </c>
       <c r="C1004" t="inlineStr"/>
-      <c r="D1004" t="inlineStr"/>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1004" t="inlineStr"/>
-      <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr"/>
+      <c r="F1004" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" t="inlineStr">
@@ -26779,24 +26811,24 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMFEB</t>
+          <t>PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr"/>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr"/>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G1005" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26808,135 +26840,151 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Personal Income MoMFEB</t>
+          <t>Core PCE Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr"/>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr"/>
       <c r="F1006" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G1006" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Personal Spending MoMFEB</t>
+          <t>Michigan Consumer Sentiment FinalMAR</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr"/>
       <c r="D1007" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1007" t="inlineStr"/>
+          <t>64.7</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMFEB</t>
+          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr"/>
       <c r="D1008" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1008" t="inlineStr"/>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F1008" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYFEB</t>
+          <t>Michigan Consumer Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr"/>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="E1009" t="inlineStr"/>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="G1009" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYFEB</t>
+          <t>Michigan Current Conditions FinalMAR</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr"/>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1010" t="inlineStr"/>
+          <t>65.7</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>63.5</t>
+        </is>
+      </c>
       <c r="F1010" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G1010" t="inlineStr">
@@ -26953,58 +27001,46 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalMAR</t>
+          <t>Michigan Inflation Expectations FinalMAR</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr"/>
       <c r="D1011" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="F1011" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>4.9%</t>
         </is>
       </c>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAR</t>
+          <t>Baker Hughes Oil Rig CountMAR/28</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr"/>
-      <c r="D1012" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr">
         <is>
           <t>3</t>
@@ -27014,30 +27050,18 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalMAR</t>
+          <t>Baker Hughes Total Rigs CountMAR/28</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr"/>
-      <c r="D1013" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
+      <c r="D1013" t="inlineStr"/>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr">
         <is>
           <t>3</t>
@@ -27047,149 +27071,41 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1014" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalMAR</t>
-        </is>
-      </c>
+          <t>Saturday March 29 2025</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr"/>
       <c r="C1014" t="inlineStr"/>
-      <c r="D1014" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1014" t="inlineStr"/>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="inlineStr"/>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalMAR</t>
-        </is>
-      </c>
+          <t>Sunday March 30 2025</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr"/>
       <c r="C1015" t="inlineStr"/>
-      <c r="D1015" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1015" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="F1015" t="inlineStr">
-        <is>
-          <t>4.9%</t>
-        </is>
-      </c>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1015" t="inlineStr"/>
+      <c r="E1015" t="inlineStr"/>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr"/>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/28</t>
-        </is>
-      </c>
+          <t>Monday March 31 2025</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr"/>
       <c r="C1016" t="inlineStr"/>
       <c r="D1016" t="inlineStr"/>
       <c r="E1016" t="inlineStr"/>
       <c r="F1016" t="inlineStr"/>
-      <c r="G1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1017" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/28</t>
-        </is>
-      </c>
-      <c r="C1017" t="inlineStr"/>
-      <c r="D1017" t="inlineStr"/>
-      <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr"/>
-      <c r="G1017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>Saturday March 29 2025</t>
-        </is>
-      </c>
-      <c r="B1018" t="inlineStr"/>
-      <c r="C1018" t="inlineStr"/>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr"/>
-      <c r="F1018" t="inlineStr"/>
-      <c r="G1018" t="inlineStr"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>Sunday March 30 2025</t>
-        </is>
-      </c>
-      <c r="B1019" t="inlineStr"/>
-      <c r="C1019" t="inlineStr"/>
-      <c r="D1019" t="inlineStr"/>
-      <c r="E1019" t="inlineStr"/>
-      <c r="F1019" t="inlineStr"/>
-      <c r="G1019" t="inlineStr"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>Monday March 31 2025</t>
-        </is>
-      </c>
-      <c r="B1020" t="inlineStr"/>
-      <c r="C1020" t="inlineStr"/>
-      <c r="D1020" t="inlineStr"/>
-      <c r="E1020" t="inlineStr"/>
-      <c r="F1020" t="inlineStr"/>
-      <c r="G1020" t="inlineStr"/>
+      <c r="G1016" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
